--- a/数据整理/stocks/A股/上证主板/600129-太极集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600129-太极集团.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1077,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,17 +1089,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1129,1015 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5821</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4840</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4582</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2719</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2347</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2014</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>57.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>67.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>68.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>30.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>15</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>6.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600129-太极集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600129-太极集团.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2084,7 +2085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2095,17 +2096,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2115,14 +2136,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.13</v>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7213</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2131,13 +2174,1219 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5382</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5188</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5041</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3096</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3074</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008923</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008924</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>69.86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>15</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>6.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600129-太极集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600129-太极集团.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009468</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时健康成长主题双周定期可赎回混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>38.53</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.07</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.2810</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>050026</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时医疗保健行业混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>51.62</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.30</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.6828</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="4">
@@ -580,492 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009141</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰达宏利价值长青混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.79</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.93</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5014</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000339</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长城医疗保健混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.95</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.63</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3633</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011673</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.27</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.08</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3325</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>012086</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时健康生活混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.45</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2412</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008786</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长城健康生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.43</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1669</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001412</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>德邦鑫星价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>63.82</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1556</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001170</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>泰达宏利复兴伟业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1492</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009469</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时健康成长主题双周定期可赎回混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>82.07</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0776</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>012087</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时健康生活混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.45</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0311</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011674</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>86.08</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0280</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002112</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>德邦鑫星价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>63.82</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009142</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>泰达宏利价值长青混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.93</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>011895</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>博时医疗保健行业混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>87.30</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.02</v>
       </c>
     </row>
   </sheetData>
@@ -1074,6 +532,1238 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7213</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5382</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5188</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5041</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3096</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3074</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008923</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008924</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>69.86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2079,13 +2769,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2136,36 +2826,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011756</t>
+          <t>009468</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时产业优选灵活配置混合型证券投资基金A</t>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.22</t>
+          <t>38.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.61</t>
+          <t>82.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7213</t>
+          <t>2.2810</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2174,36 +2864,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010550</t>
+          <t>050026</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商双擎领航混合</t>
+          <t>博时医疗保健行业混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.73</t>
+          <t>51.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>87.30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5382</t>
+          <t>1.6828</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2212,36 +2902,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009468</t>
+          <t>009141</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时健康成长主题双周定期可赎回混合A</t>
+          <t>泰达宏利价值长青混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>12.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.31</t>
+          <t>91.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.30</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5188</t>
+          <t>0.5014</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2250,36 +2940,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006158</t>
+          <t>000339</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时荣享回报灵活配置定期开放混合A</t>
+          <t>长城医疗保健混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19.24</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>78.55</t>
+          <t>91.63</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5041</t>
+          <t>0.3633</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2288,36 +2978,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011585</t>
+          <t>011673</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时产业慧选混合A</t>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.77</t>
+          <t>11.27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>79.88</t>
+          <t>86.08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3096</t>
+          <t>0.3325</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2326,36 +3016,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011466</t>
+          <t>012086</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>兴业医疗保健混合A</t>
+          <t>博时健康生活混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.25</t>
+          <t>90.45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3074</t>
+          <t>0.2412</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2364,36 +3054,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005805</t>
+          <t>008786</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞医疗健康混合A</t>
+          <t>长城健康生活灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>88.43</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1729</t>
+          <t>0.1669</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2402,36 +3092,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010455</t>
+          <t>001412</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时产业精选灵活配置混合A</t>
+          <t>德邦鑫星价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>83.27</t>
+          <t>63.82</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1676</t>
+          <t>0.1556</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -2440,36 +3130,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009591</t>
+          <t>001170</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>博时研究精选一年持有期灵活配置混合A</t>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>79.40</t>
+          <t>91.29</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1670</t>
+          <t>0.1492</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -2478,36 +3168,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000936</t>
+          <t>009469</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博时产业新动力灵活配置混合A</t>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>82.86</t>
+          <t>82.07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1500</t>
+          <t>0.0776</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -2516,36 +3206,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011467</t>
+          <t>012087</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>兴业医疗保健混合C</t>
+          <t>博时健康生活混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>84.25</t>
+          <t>90.45</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1411</t>
+          <t>0.0311</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -2554,36 +3244,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>012086</t>
+          <t>011674</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>博时健康生活混合型证券投资基金A</t>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>86.08</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1061</t>
+          <t>0.0280</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2592,36 +3282,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009469</t>
+          <t>002112</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>博时健康成长主题双周定期可赎回混合C</t>
+          <t>德邦鑫星价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>88.31</t>
+          <t>63.82</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>8.30</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0888</t>
+          <t>0.0057</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -2630,36 +3320,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004050</t>
+          <t>009142</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华夏新锦升灵活配置混合A</t>
+          <t>泰达宏利价值长青混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>69.86</t>
+          <t>91.93</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0860</t>
+          <t>0.0051</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2668,726 +3358,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008923</t>
+          <t>011895</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>建信医疗健康行业股票A</t>
+          <t>博时医疗保健行业混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>87.89</t>
+          <t>87.30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0711</t>
+          <t>0.0029</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002142</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>博时外延增长主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>83.35</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0626</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001412</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>德邦鑫星价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>65.16</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0563</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>011586</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>博时产业慧选混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>79.88</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0308</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>010427</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>兴银策略智选混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0258</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>010456</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>博时产业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>83.27</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0219</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>011757</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>博时产业优选灵活配置混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>74.61</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0217</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>012087</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时健康生活混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0204</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>006159</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>博时荣享回报灵活配置定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>78.55</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0189</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009592</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>博时研究精选一年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>79.40</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>010428</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>兴银策略智选混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0166</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>011453</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华泰柏瑞医疗健康混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0164</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>008924</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>建信医疗健康行业股票C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>87.89</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0157</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>002112</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>德邦鑫星价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>65.16</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001730</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>兴银大健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>005878</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>博时产业新动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>82.86</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>004051</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>华夏新锦升灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>69.86</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.02</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600129-太极集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600129-太极集团.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>4.4</v>
+        <v>16.68</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>3.13</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>15</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>6.02</v>
       </c>
     </row>
@@ -532,6 +549,2604 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013812</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺景气进取混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1229</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6852</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6363</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2644</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0058</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7933</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6933</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银养老产业股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6150</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5914</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013813</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺景气进取混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5881</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015385</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4525</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3466</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3400</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>55.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3328</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3296</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3219</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3097</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信澳健康中国灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2755</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>60.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2691</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2185</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信澳医药健康混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2060</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1880</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014472</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159647</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015208</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信澳健康中国灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014350</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>74.52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012238</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银养老产业股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008923</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>64.62</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>60.10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008924</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014708</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘臻选健康混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014473</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>景顺远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>57.67</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>72.85</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>015683</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>55.34</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014709</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天弘臻选健康混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014351</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>64.62</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>015640</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>016352</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>015619</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1763,7 +4378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2769,7 +5384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600129-太极集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600129-太极集团.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D2" t="n">
-        <v>16.68</v>
+        <v>17.01</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D3" t="n">
-        <v>4.4</v>
+        <v>16.68</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>3.13</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>15</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.02</v>
       </c>
     </row>
@@ -549,6 +566,2872 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013812</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺景气进取混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8614</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8887</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2644</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8470</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013813</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺景气进取混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6994</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6243</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6006</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信健康民生混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5922</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011790</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5072</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015385</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4525</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3621</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3547</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014472</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3364</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3176</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3153</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3109</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2808</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014849</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信健康民生混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2807</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015683</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2789</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2718</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2536</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2442</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2335</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2108</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013037</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城大健康混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008924</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>016588</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国融甄混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008923</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014473</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>景顺远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.86</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>016059</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014708</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘臻选健康混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>016589</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国融甄混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>016061</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013038</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长城大健康混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>014709</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>天弘臻选健康混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>015562</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>015655</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富荣医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013154</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014863</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>建信信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>015656</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富荣医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>015619</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3146,7 +6029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4378,7 +7261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5384,7 +8267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
